--- a/xp_SkillQuest_2026-02-18.xlsx
+++ b/xp_SkillQuest_2026-02-18.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadmiom/Desktop/Résultats SkillQuest/SkillQuest20260218/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C344C-2EB7-E145-8E4B-1EDB61576372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28900" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultats" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Résultats!$A$1:$F$216</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="105">
   <si>
     <t>Mail</t>
   </si>
@@ -214,9 +220,6 @@
     <t>Diagonalisation de matrice</t>
   </si>
   <si>
-    <t>Découverte dInternet</t>
-  </si>
-  <si>
     <t>Dérivées</t>
   </si>
   <si>
@@ -247,9 +250,6 @@
     <t>Impression 3D - La théorie</t>
   </si>
   <si>
-    <t>Introduction aux bases de donnée</t>
-  </si>
-  <si>
     <t>Introduction à la 3D</t>
   </si>
   <si>
@@ -292,9 +292,6 @@
     <t>Statistique bivariée</t>
   </si>
   <si>
-    <t>Systèmes déquations linéaires</t>
-  </si>
-  <si>
     <t>Tests d'hypothèses</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
   </si>
   <si>
     <t>Argent</t>
-  </si>
-  <si>
-    <t>20260218</t>
   </si>
   <si>
     <t>8:30</t>
@@ -349,8 +343,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,24 +396,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,7 +460,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -491,6 +494,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -525,9 +529,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -700,19 +705,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D216"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="1" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,41 +739,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
-        <v>104</v>
+      <c r="D2" s="2">
+        <v>46071</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
-        <v>104</v>
+      <c r="D3" s="2">
+        <v>46071</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F3">
         <v>9.33</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -774,19 +781,19 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D4" s="2">
+        <v>46071</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -794,19 +801,19 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="D5" s="2">
+        <v>46071</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -814,36 +821,36 @@
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D6" s="2">
+        <v>46071</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F6">
         <v>11.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
-        <v>104</v>
+      <c r="D7" s="2">
+        <v>46071</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F7">
         <v>9.33</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -851,87 +858,87 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D8" s="2">
+        <v>46071</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
-        <v>104</v>
+      <c r="D9" s="2">
+        <v>46071</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
-        <v>104</v>
+      <c r="D10" s="2">
+        <v>46071</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="s">
-        <v>104</v>
+      <c r="D11" s="2">
+        <v>46071</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F11">
         <v>5.33</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
-        <v>104</v>
+      <c r="D12" s="2">
+        <v>46071</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -939,36 +946,36 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D13" s="2">
+        <v>46071</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F13">
         <v>11.33</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
-        <v>104</v>
+      <c r="D14" s="2">
+        <v>46071</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -976,19 +983,19 @@
         <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="D15" s="2">
+        <v>46071</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F15">
-        <v>17.33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>17.329999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -996,3582 +1003,3582 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D16" s="2">
+        <v>46071</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="D17" t="s">
-        <v>104</v>
+      <c r="D17" s="2">
+        <v>46071</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="D18" s="2">
+        <v>46071</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F18">
-        <v>4.61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D19" s="2">
+        <v>46071</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F19">
         <v>11.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="D20" s="2">
+        <v>46071</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F20">
         <v>4.63</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="D21" s="2">
+        <v>46071</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F21">
         <v>9.18</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>104</v>
+        <v>65</v>
+      </c>
+      <c r="D22" s="2">
+        <v>46071</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F22">
         <v>6.67</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D23" s="2">
+        <v>46071</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
+        <v>65</v>
+      </c>
+      <c r="D24" s="2">
+        <v>46071</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" t="s">
-        <v>104</v>
+        <v>65</v>
+      </c>
+      <c r="D25" s="2">
+        <v>46071</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F25">
         <v>6.67</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D26" s="2">
+        <v>46071</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
-        <v>104</v>
+        <v>65</v>
+      </c>
+      <c r="D27" s="2">
+        <v>46071</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F27">
         <v>1.33</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>104</v>
+        <v>65</v>
+      </c>
+      <c r="D28" s="2">
+        <v>46071</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F28">
         <v>7.33</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D29" s="2">
+        <v>46071</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F29">
         <v>10.67</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>104</v>
+        <v>66</v>
+      </c>
+      <c r="D30" s="2">
+        <v>46071</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F30">
         <v>6.67</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D31" s="2">
+        <v>46071</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F31">
         <v>10.67</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" t="s">
-        <v>104</v>
+        <v>67</v>
+      </c>
+      <c r="D32" s="2">
+        <v>46071</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F32">
         <v>1.33</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D33" s="2">
+        <v>46071</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F33">
         <v>14.67</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" t="s">
-        <v>104</v>
+        <v>67</v>
+      </c>
+      <c r="D34" s="2">
+        <v>46071</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D35" s="2">
+        <v>46071</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F35">
         <v>14.67</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" t="s">
-        <v>104</v>
+        <v>68</v>
+      </c>
+      <c r="D36" s="2">
+        <v>46071</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F36">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D37" s="2">
+        <v>46071</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F37">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D38" s="2">
+        <v>46071</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F38">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D39" s="2">
+        <v>46071</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D40" s="2">
+        <v>46071</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D41" s="2">
+        <v>46071</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F41">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D42" s="2">
+        <v>46071</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F42">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D43" s="2">
+        <v>46071</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F43">
         <v>8.33</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D44" s="2">
+        <v>46071</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F44">
         <v>3.33</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D45" s="2">
+        <v>46071</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F45">
         <v>7.33</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D46" s="2">
+        <v>46071</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F46">
         <v>8.33</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D47" s="2">
+        <v>46071</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F47">
         <v>4.67</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D48" s="2">
+        <v>46071</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F48">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D49" s="2">
+        <v>46071</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F49">
         <v>3.33</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D50" s="2">
+        <v>46071</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F50">
         <v>8.67</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D51" s="2">
+        <v>46071</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F51">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D52" s="2">
+        <v>46071</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F52">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D53" s="2">
+        <v>46071</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F53">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D54" s="2">
+        <v>46071</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F54">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D55" s="2">
+        <v>46071</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F55">
         <v>5.33</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D56" s="2">
+        <v>46071</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F56">
         <v>2.67</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D57" s="2">
+        <v>46071</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D58" s="2">
+        <v>46071</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F58">
         <v>0.67</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D59" s="2">
+        <v>46071</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D60" s="2">
+        <v>46071</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F60">
         <v>5.33</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="D61" s="2">
+        <v>46071</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F61">
         <v>3.33</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D62" s="2">
+        <v>46071</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F62">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="D63" s="2">
+        <v>46071</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F63">
         <v>7.33</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="D64" s="2">
+        <v>46071</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="D65" s="2">
+        <v>46071</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F65">
         <v>0.67</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="D66" s="2">
+        <v>46071</v>
       </c>
       <c r="E66" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F66">
         <v>4.67</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="D67" s="2">
+        <v>46071</v>
       </c>
       <c r="E67" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F67">
         <v>5.33</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="D68" s="2">
+        <v>46071</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F68">
         <v>5.33</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>42</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="D69" s="2">
+        <v>46071</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F69">
         <v>7.33</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="D70" s="2">
+        <v>46071</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F70">
         <v>7.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D71" s="2">
+        <v>46071</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F71">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
-      </c>
-      <c r="D72" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D72" s="2">
+        <v>46071</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F72">
         <v>11.33</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="D73" s="2">
+        <v>46071</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F73">
         <v>3.33</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" t="s">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="D74" s="2">
+        <v>46071</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F74">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" t="s">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="D75" s="2">
+        <v>46071</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F75">
         <v>1.5</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" t="s">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="D76" s="2">
+        <v>46071</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F76">
         <v>6.67</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" t="s">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="D77" s="2">
+        <v>46071</v>
       </c>
       <c r="E77" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F77">
         <v>1.92</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" t="s">
-        <v>104</v>
+        <v>71</v>
+      </c>
+      <c r="D78" s="2">
+        <v>46071</v>
       </c>
       <c r="E78" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F78">
         <v>7.92</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D79" s="2">
+        <v>46071</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F79">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" t="s">
-        <v>104</v>
+        <v>72</v>
+      </c>
+      <c r="D80" s="2">
+        <v>46071</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" t="s">
-        <v>104</v>
+        <v>72</v>
+      </c>
+      <c r="D81" s="2">
+        <v>46071</v>
       </c>
       <c r="E81" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F81">
         <v>2.67</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
-      </c>
-      <c r="D82" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="D82" s="2">
+        <v>46071</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F82">
         <v>4.83</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D83" s="2">
+        <v>46071</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F83">
         <v>10.33</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
-      </c>
-      <c r="D84" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="D84" s="2">
+        <v>46071</v>
       </c>
       <c r="E84" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F84">
         <v>0.17</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="D85" s="2">
+        <v>46071</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F85">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C86" t="s">
-        <v>101</v>
-      </c>
-      <c r="D86" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D86" s="2">
+        <v>46071</v>
       </c>
       <c r="E86" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F86">
         <v>11.33</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
-      </c>
-      <c r="D87" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="D87" s="2">
+        <v>46071</v>
       </c>
       <c r="E87" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F87">
         <v>6.83</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
-      </c>
-      <c r="D88" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="D88" s="2">
+        <v>46071</v>
       </c>
       <c r="E88" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
-      </c>
-      <c r="D89" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="D89" s="2">
+        <v>46071</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F89">
         <v>2.83</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
-      </c>
-      <c r="D90" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="D90" s="2">
+        <v>46071</v>
       </c>
       <c r="E90" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F90">
         <v>9.17</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>46</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
-      </c>
-      <c r="D91" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D91" s="2">
+        <v>46071</v>
       </c>
       <c r="E91" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F91">
         <v>10.67</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
-      </c>
-      <c r="D92" t="s">
-        <v>104</v>
+        <v>74</v>
+      </c>
+      <c r="D92" s="2">
+        <v>46071</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F92">
         <v>5.33</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
-      </c>
-      <c r="D93" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D93" s="2">
+        <v>46071</v>
       </c>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F93">
         <v>11.33</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>48</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
-      </c>
-      <c r="D94" t="s">
-        <v>104</v>
+        <v>74</v>
+      </c>
+      <c r="D94" s="2">
+        <v>46071</v>
       </c>
       <c r="E94" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F94">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
-      </c>
-      <c r="D95" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="D95" s="2">
+        <v>46071</v>
       </c>
       <c r="E95" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F95">
         <v>8.67</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
-      </c>
-      <c r="D96" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="D96" s="2">
+        <v>46071</v>
       </c>
       <c r="E96" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F96">
         <v>5.83</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
-      </c>
-      <c r="D97" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D97" s="2">
+        <v>46071</v>
       </c>
       <c r="E97" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F97">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>107</v>
-      </c>
-      <c r="D98" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="D98" s="2">
+        <v>46071</v>
       </c>
       <c r="E98" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F98">
         <v>4.08</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D99" s="2">
+        <v>46071</v>
       </c>
       <c r="E99" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F99">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
-      </c>
-      <c r="D100" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+      <c r="D100" s="2">
+        <v>46071</v>
       </c>
       <c r="E100" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F100">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>44</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
-      </c>
-      <c r="D101" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="D101" s="2">
+        <v>46071</v>
       </c>
       <c r="E101" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F101">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>52</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C102" t="s">
-        <v>101</v>
-      </c>
-      <c r="D102" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D102" s="2">
+        <v>46071</v>
       </c>
       <c r="E102" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F102">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>31</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C103" t="s">
-        <v>101</v>
-      </c>
-      <c r="D103" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D103" s="2">
+        <v>46071</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F103">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>79</v>
-      </c>
-      <c r="D104" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="D104" s="2">
+        <v>46071</v>
       </c>
       <c r="E104" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>36</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
-      </c>
-      <c r="D105" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="D105" s="2">
+        <v>46071</v>
       </c>
       <c r="E105" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F105">
         <v>6.67</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>79</v>
-      </c>
-      <c r="D106" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="D106" s="2">
+        <v>46071</v>
       </c>
       <c r="E106" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
-      </c>
-      <c r="D107" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="D107" s="2">
+        <v>46071</v>
       </c>
       <c r="E107" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F107">
         <v>6.67</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>40</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
-      </c>
-      <c r="D108" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="D108" s="2">
+        <v>46071</v>
       </c>
       <c r="E108" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>79</v>
-      </c>
-      <c r="D109" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="D109" s="2">
+        <v>46071</v>
       </c>
       <c r="E109" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
-      </c>
-      <c r="D110" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="D110" s="2">
+        <v>46071</v>
       </c>
       <c r="E110" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
-      </c>
-      <c r="D111" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="D111" s="2">
+        <v>46071</v>
       </c>
       <c r="E111" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F111">
         <v>6.67</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>53</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
-      </c>
-      <c r="D112" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="D112" s="2">
+        <v>46071</v>
       </c>
       <c r="E112" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F112">
         <v>6.67</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
-      </c>
-      <c r="D113" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="D113" s="2">
+        <v>46071</v>
       </c>
       <c r="E113" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F113">
         <v>0.67</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
-      </c>
-      <c r="D114" t="s">
-        <v>104</v>
+        <v>78</v>
+      </c>
+      <c r="D114" s="2">
+        <v>46071</v>
       </c>
       <c r="E114" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F114">
         <v>9.1</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>54</v>
       </c>
       <c r="B115" t="s">
-        <v>80</v>
-      </c>
-      <c r="D115" t="s">
-        <v>104</v>
+        <v>78</v>
+      </c>
+      <c r="D115" s="2">
+        <v>46071</v>
       </c>
       <c r="E115" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F115">
-        <v>6.719999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>6.7199999999999989</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>25</v>
       </c>
       <c r="B116" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C116" t="s">
-        <v>101</v>
-      </c>
-      <c r="D116" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D116" s="2">
+        <v>46071</v>
       </c>
       <c r="E116" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F116">
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
-      </c>
-      <c r="D117" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="D117" s="2">
+        <v>46071</v>
       </c>
       <c r="E117" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>55</v>
       </c>
       <c r="B118" t="s">
-        <v>81</v>
-      </c>
-      <c r="D118" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="D118" s="2">
+        <v>46071</v>
       </c>
       <c r="E118" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F118">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
-      </c>
-      <c r="D119" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="D119" s="2">
+        <v>46071</v>
       </c>
       <c r="E119" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F119">
         <v>2.67</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>81</v>
-      </c>
-      <c r="D120" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="D120" s="2">
+        <v>46071</v>
       </c>
       <c r="E120" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>45</v>
       </c>
       <c r="B121" t="s">
-        <v>81</v>
-      </c>
-      <c r="D121" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="D121" s="2">
+        <v>46071</v>
       </c>
       <c r="E121" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F121">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>55</v>
       </c>
       <c r="B122" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C122" t="s">
-        <v>101</v>
-      </c>
-      <c r="D122" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D122" s="2">
+        <v>46071</v>
       </c>
       <c r="E122" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F122">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C123" t="s">
-        <v>101</v>
-      </c>
-      <c r="D123" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D123" s="2">
+        <v>46071</v>
       </c>
       <c r="E123" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F123">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>36</v>
       </c>
       <c r="B124" t="s">
-        <v>83</v>
-      </c>
-      <c r="D124" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="D124" s="2">
+        <v>46071</v>
       </c>
       <c r="E124" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F124">
         <v>9.33</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C125" t="s">
-        <v>101</v>
-      </c>
-      <c r="D125" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D125" s="2">
+        <v>46071</v>
       </c>
       <c r="E125" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F125">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>37</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
-      </c>
-      <c r="D126" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="D126" s="2">
+        <v>46071</v>
       </c>
       <c r="E126" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F126">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>46</v>
       </c>
       <c r="B127" t="s">
-        <v>83</v>
-      </c>
-      <c r="D127" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="D127" s="2">
+        <v>46071</v>
       </c>
       <c r="E127" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F127">
         <v>6.67</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>47</v>
       </c>
       <c r="B128" t="s">
-        <v>83</v>
-      </c>
-      <c r="D128" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="D128" s="2">
+        <v>46071</v>
       </c>
       <c r="E128" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>40</v>
       </c>
       <c r="B129" t="s">
-        <v>83</v>
-      </c>
-      <c r="D129" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="D129" s="2">
+        <v>46071</v>
       </c>
       <c r="E129" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F129">
         <v>6.67</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>83</v>
-      </c>
-      <c r="D130" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="D130" s="2">
+        <v>46071</v>
       </c>
       <c r="E130" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>83</v>
-      </c>
-      <c r="D131" t="s">
-        <v>104</v>
+        <v>81</v>
+      </c>
+      <c r="D131" s="2">
+        <v>46071</v>
       </c>
       <c r="E131" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F131">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>54</v>
       </c>
       <c r="B132" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C132" t="s">
-        <v>101</v>
-      </c>
-      <c r="D132" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D132" s="2">
+        <v>46071</v>
       </c>
       <c r="E132" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F132">
         <v>10.33</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>25</v>
       </c>
       <c r="B133" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C133" t="s">
-        <v>101</v>
-      </c>
-      <c r="D133" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D133" s="2">
+        <v>46071</v>
       </c>
       <c r="E133" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F133">
         <v>10.67</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>56</v>
       </c>
       <c r="B134" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C134" t="s">
-        <v>101</v>
-      </c>
-      <c r="D134" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D134" s="2">
+        <v>46071</v>
       </c>
       <c r="E134" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F134">
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>85</v>
-      </c>
-      <c r="D135" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="D135" s="2">
+        <v>46071</v>
       </c>
       <c r="E135" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F135">
         <v>5.33</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>85</v>
-      </c>
-      <c r="D136" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="D136" s="2">
+        <v>46071</v>
       </c>
       <c r="E136" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>85</v>
-      </c>
-      <c r="D137" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="D137" s="2">
+        <v>46071</v>
       </c>
       <c r="E137" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F137">
         <v>2.67</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>85</v>
-      </c>
-      <c r="D138" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="D138" s="2">
+        <v>46071</v>
       </c>
       <c r="E138" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F138">
         <v>3.33</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>45</v>
       </c>
       <c r="B139" t="s">
-        <v>85</v>
-      </c>
-      <c r="D139" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="D139" s="2">
+        <v>46071</v>
       </c>
       <c r="E139" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>85</v>
-      </c>
-      <c r="D140" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="D140" s="2">
+        <v>46071</v>
       </c>
       <c r="E140" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>23</v>
       </c>
       <c r="B141" t="s">
-        <v>86</v>
-      </c>
-      <c r="D141" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="D141" s="2">
+        <v>46071</v>
       </c>
       <c r="E141" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F141">
         <v>8.67</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>86</v>
-      </c>
-      <c r="D142" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="D142" s="2">
+        <v>46071</v>
       </c>
       <c r="E142" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>47</v>
       </c>
       <c r="B143" t="s">
-        <v>86</v>
-      </c>
-      <c r="D143" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="D143" s="2">
+        <v>46071</v>
       </c>
       <c r="E143" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F143">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>86</v>
-      </c>
-      <c r="D144" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="D144" s="2">
+        <v>46071</v>
       </c>
       <c r="E144" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F144">
         <v>6.67</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>57</v>
       </c>
       <c r="B145" t="s">
-        <v>86</v>
-      </c>
-      <c r="D145" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="D145" s="2">
+        <v>46071</v>
       </c>
       <c r="E145" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F145">
         <v>7.33</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>28</v>
       </c>
       <c r="B146" t="s">
-        <v>86</v>
-      </c>
-      <c r="D146" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="D146" s="2">
+        <v>46071</v>
       </c>
       <c r="E146" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F146">
         <v>4.67</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>86</v>
-      </c>
-      <c r="D147" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="D147" s="2">
+        <v>46071</v>
       </c>
       <c r="E147" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F147">
         <v>6.67</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>53</v>
       </c>
       <c r="B148" t="s">
-        <v>86</v>
-      </c>
-      <c r="D148" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="D148" s="2">
+        <v>46071</v>
       </c>
       <c r="E148" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F148">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>29</v>
       </c>
       <c r="B149" t="s">
-        <v>86</v>
-      </c>
-      <c r="D149" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="D149" s="2">
+        <v>46071</v>
       </c>
       <c r="E149" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F149">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>25</v>
       </c>
       <c r="B150" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C150" t="s">
-        <v>101</v>
-      </c>
-      <c r="D150" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D150" s="2">
+        <v>46071</v>
       </c>
       <c r="E150" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F150">
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>30</v>
       </c>
       <c r="B151" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C151" t="s">
-        <v>101</v>
-      </c>
-      <c r="D151" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D151" s="2">
+        <v>46071</v>
       </c>
       <c r="E151" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F151">
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>56</v>
       </c>
       <c r="B152" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C152" t="s">
-        <v>103</v>
-      </c>
-      <c r="D152" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="D152" s="2">
+        <v>46071</v>
       </c>
       <c r="E152" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F152">
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>87</v>
-      </c>
-      <c r="D153" t="s">
-        <v>104</v>
+        <v>85</v>
+      </c>
+      <c r="D153" s="2">
+        <v>46071</v>
       </c>
       <c r="E153" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F153">
         <v>4.33</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>56</v>
       </c>
       <c r="B154" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C154" t="s">
-        <v>103</v>
-      </c>
-      <c r="D154" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="D154" s="2">
+        <v>46071</v>
       </c>
       <c r="E154" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F154">
         <v>15.33</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>23</v>
       </c>
       <c r="B155" t="s">
-        <v>88</v>
-      </c>
-      <c r="D155" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D155" s="2">
+        <v>46071</v>
       </c>
       <c r="E155" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F155">
         <v>2.67</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>24</v>
       </c>
       <c r="B156" t="s">
-        <v>88</v>
-      </c>
-      <c r="D156" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D156" s="2">
+        <v>46071</v>
       </c>
       <c r="E156" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F156">
         <v>0.67</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C157" t="s">
-        <v>101</v>
-      </c>
-      <c r="D157" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D157" s="2">
+        <v>46071</v>
       </c>
       <c r="E157" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F157">
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>36</v>
       </c>
       <c r="B158" t="s">
-        <v>88</v>
-      </c>
-      <c r="D158" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D158" s="2">
+        <v>46071</v>
       </c>
       <c r="E158" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>26</v>
       </c>
       <c r="B159" t="s">
-        <v>88</v>
-      </c>
-      <c r="D159" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D159" s="2">
+        <v>46071</v>
       </c>
       <c r="E159" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F159">
         <v>7.33</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>39</v>
       </c>
       <c r="B160" t="s">
-        <v>88</v>
-      </c>
-      <c r="D160" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D160" s="2">
+        <v>46071</v>
       </c>
       <c r="E160" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F160">
         <v>7.67</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>88</v>
-      </c>
-      <c r="D161" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D161" s="2">
+        <v>46071</v>
       </c>
       <c r="E161" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F161">
         <v>9.33</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>88</v>
-      </c>
-      <c r="D162" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D162" s="2">
+        <v>46071</v>
       </c>
       <c r="E162" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F162">
         <v>2.67</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>88</v>
-      </c>
-      <c r="D163" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D163" s="2">
+        <v>46071</v>
       </c>
       <c r="E163" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>54</v>
       </c>
       <c r="B164" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C164" t="s">
-        <v>101</v>
-      </c>
-      <c r="D164" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D164" s="2">
+        <v>46071</v>
       </c>
       <c r="E164" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F164">
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>55</v>
       </c>
       <c r="B165" t="s">
-        <v>88</v>
-      </c>
-      <c r="D165" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D165" s="2">
+        <v>46071</v>
       </c>
       <c r="E165" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>41</v>
       </c>
       <c r="B166" t="s">
-        <v>88</v>
-      </c>
-      <c r="D166" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D166" s="2">
+        <v>46071</v>
       </c>
       <c r="E166" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F166">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>28</v>
       </c>
       <c r="B167" t="s">
-        <v>88</v>
-      </c>
-      <c r="D167" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D167" s="2">
+        <v>46071</v>
       </c>
       <c r="E167" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F167">
         <v>0.67</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>10</v>
       </c>
       <c r="B168" t="s">
-        <v>88</v>
-      </c>
-      <c r="D168" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D168" s="2">
+        <v>46071</v>
       </c>
       <c r="E168" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F168">
         <v>5.67</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>43</v>
       </c>
       <c r="B169" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C169" t="s">
-        <v>101</v>
-      </c>
-      <c r="D169" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D169" s="2">
+        <v>46071</v>
       </c>
       <c r="E169" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F169">
         <v>11.33</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>45</v>
       </c>
       <c r="B170" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C170" t="s">
-        <v>101</v>
-      </c>
-      <c r="D170" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D170" s="2">
+        <v>46071</v>
       </c>
       <c r="E170" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F170">
         <v>11.33</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>88</v>
-      </c>
-      <c r="D171" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D171" s="2">
+        <v>46071</v>
       </c>
       <c r="E171" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F171">
         <v>1.33</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>88</v>
-      </c>
-      <c r="D172" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="D172" s="2">
+        <v>46071</v>
       </c>
       <c r="E172" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F172">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>89</v>
-      </c>
-      <c r="D173" t="s">
-        <v>104</v>
+        <v>87</v>
+      </c>
+      <c r="D173" s="2">
+        <v>46071</v>
       </c>
       <c r="E173" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F173">
         <v>9.67</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>16</v>
       </c>
       <c r="B174" t="s">
-        <v>90</v>
-      </c>
-      <c r="D174" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="D174" s="2">
+        <v>46071</v>
       </c>
       <c r="E174" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F174">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>26</v>
       </c>
       <c r="B175" t="s">
-        <v>90</v>
-      </c>
-      <c r="D175" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="D175" s="2">
+        <v>46071</v>
       </c>
       <c r="E175" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F175">
         <v>7.75</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>16</v>
       </c>
       <c r="B176" t="s">
-        <v>108</v>
-      </c>
-      <c r="D176" t="s">
         <v>104</v>
       </c>
+      <c r="D176" s="2">
+        <v>46071</v>
+      </c>
       <c r="E176" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F176">
         <v>8.67</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>39</v>
       </c>
       <c r="B177" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C177" t="s">
-        <v>101</v>
-      </c>
-      <c r="D177" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D177" s="2">
+        <v>46071</v>
       </c>
       <c r="E177" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F177">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>41</v>
       </c>
       <c r="B178" t="s">
-        <v>108</v>
-      </c>
-      <c r="D178" t="s">
         <v>104</v>
       </c>
+      <c r="D178" s="2">
+        <v>46071</v>
+      </c>
       <c r="E178" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F178">
         <v>8.67</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>14</v>
       </c>
       <c r="B179" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C179" t="s">
-        <v>101</v>
-      </c>
-      <c r="D179" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D179" s="2">
+        <v>46071</v>
       </c>
       <c r="E179" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F179">
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>35</v>
       </c>
       <c r="B180" t="s">
-        <v>92</v>
-      </c>
-      <c r="D180" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="D180" s="2">
+        <v>46071</v>
       </c>
       <c r="E180" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F180">
         <v>8.33</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>36</v>
       </c>
       <c r="B181" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C181" t="s">
-        <v>101</v>
-      </c>
-      <c r="D181" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D181" s="2">
+        <v>46071</v>
       </c>
       <c r="E181" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F181">
         <v>10.67</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>37</v>
       </c>
       <c r="B182" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C182" t="s">
-        <v>101</v>
-      </c>
-      <c r="D182" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D182" s="2">
+        <v>46071</v>
       </c>
       <c r="E182" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F182">
         <v>10.33</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>18</v>
       </c>
       <c r="B183" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C183" t="s">
-        <v>101</v>
-      </c>
-      <c r="D183" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D183" s="2">
+        <v>46071</v>
       </c>
       <c r="E183" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F183">
         <v>12.33</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>43</v>
       </c>
       <c r="B184" t="s">
-        <v>92</v>
-      </c>
-      <c r="D184" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="D184" s="2">
+        <v>46071</v>
       </c>
       <c r="E184" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>45</v>
       </c>
       <c r="B185" t="s">
-        <v>92</v>
-      </c>
-      <c r="D185" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="D185" s="2">
+        <v>46071</v>
       </c>
       <c r="E185" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F185">
         <v>7.17</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>93</v>
-      </c>
-      <c r="D186" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="D186" s="2">
+        <v>46071</v>
       </c>
       <c r="E186" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F186">
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C187" t="s">
-        <v>101</v>
-      </c>
-      <c r="D187" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D187" s="2">
+        <v>46071</v>
       </c>
       <c r="E187" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F187">
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>21</v>
       </c>
       <c r="B188" t="s">
-        <v>93</v>
-      </c>
-      <c r="D188" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="D188" s="2">
+        <v>46071</v>
       </c>
       <c r="E188" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F188">
         <v>1.67</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>14</v>
       </c>
       <c r="B189" t="s">
-        <v>93</v>
-      </c>
-      <c r="D189" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="D189" s="2">
+        <v>46071</v>
       </c>
       <c r="E189" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F189">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>15</v>
       </c>
       <c r="B190" t="s">
-        <v>93</v>
-      </c>
-      <c r="D190" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="D190" s="2">
+        <v>46071</v>
       </c>
       <c r="E190" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F190">
         <v>5.33</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>36</v>
       </c>
       <c r="B191" t="s">
-        <v>94</v>
-      </c>
-      <c r="D191" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D191" s="2">
+        <v>46071</v>
       </c>
       <c r="E191" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>40</v>
       </c>
       <c r="B192" t="s">
-        <v>94</v>
-      </c>
-      <c r="D192" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D192" s="2">
+        <v>46071</v>
       </c>
       <c r="E192" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F192">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>21</v>
       </c>
       <c r="B193" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C193" t="s">
-        <v>101</v>
-      </c>
-      <c r="D193" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D193" s="2">
+        <v>46071</v>
       </c>
       <c r="E193" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F193">
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>94</v>
-      </c>
-      <c r="D194" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D194" s="2">
+        <v>46071</v>
       </c>
       <c r="E194" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>94</v>
-      </c>
-      <c r="D195" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="D195" s="2">
+        <v>46071</v>
       </c>
       <c r="E195" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>37</v>
       </c>
       <c r="B196" t="s">
-        <v>95</v>
-      </c>
-      <c r="D196" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="D196" s="2">
+        <v>46071</v>
       </c>
       <c r="E196" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F196">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>46</v>
       </c>
       <c r="B197" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C197" t="s">
-        <v>101</v>
-      </c>
-      <c r="D197" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D197" s="2">
+        <v>46071</v>
       </c>
       <c r="E197" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F197">
         <v>10.67</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C198" t="s">
-        <v>101</v>
-      </c>
-      <c r="D198" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D198" s="2">
+        <v>46071</v>
       </c>
       <c r="E198" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F198">
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>95</v>
-      </c>
-      <c r="D199" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="D199" s="2">
+        <v>46071</v>
       </c>
       <c r="E199" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F199">
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>95</v>
-      </c>
-      <c r="D200" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="D200" s="2">
+        <v>46071</v>
       </c>
       <c r="E200" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F200">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>28</v>
       </c>
       <c r="B201" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C201" t="s">
-        <v>101</v>
-      </c>
-      <c r="D201" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D201" s="2">
+        <v>46071</v>
       </c>
       <c r="E201" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F201">
         <v>11.67</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>29</v>
       </c>
       <c r="B202" t="s">
-        <v>96</v>
-      </c>
-      <c r="D202" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="D202" s="2">
+        <v>46071</v>
       </c>
       <c r="E202" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F202">
         <v>1.33</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>25</v>
       </c>
       <c r="B203" t="s">
-        <v>96</v>
-      </c>
-      <c r="D203" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="D203" s="2">
+        <v>46071</v>
       </c>
       <c r="E203" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F203">
         <v>6.33</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>26</v>
       </c>
       <c r="B204" t="s">
-        <v>97</v>
-      </c>
-      <c r="D204" t="s">
-        <v>104</v>
+        <v>94</v>
+      </c>
+      <c r="D204" s="2">
+        <v>46071</v>
       </c>
       <c r="E204" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F204">
         <v>2.67</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>54</v>
       </c>
       <c r="B205" t="s">
-        <v>97</v>
-      </c>
-      <c r="D205" t="s">
-        <v>104</v>
+        <v>94</v>
+      </c>
+      <c r="D205" s="2">
+        <v>46071</v>
       </c>
       <c r="E205" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F205">
         <v>9.33</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>28</v>
       </c>
       <c r="B206" t="s">
-        <v>97</v>
-      </c>
-      <c r="D206" t="s">
-        <v>104</v>
+        <v>94</v>
+      </c>
+      <c r="D206" s="2">
+        <v>46071</v>
       </c>
       <c r="E206" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F206">
         <v>6.67</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>25</v>
       </c>
       <c r="B207" t="s">
-        <v>97</v>
-      </c>
-      <c r="D207" t="s">
-        <v>104</v>
+        <v>94</v>
+      </c>
+      <c r="D207" s="2">
+        <v>46071</v>
       </c>
       <c r="E207" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F207">
         <v>1.5</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>28</v>
       </c>
       <c r="B208" t="s">
-        <v>98</v>
-      </c>
-      <c r="D208" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="D208" s="2">
+        <v>46071</v>
       </c>
       <c r="E208" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F208">
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>35</v>
       </c>
       <c r="B209" t="s">
-        <v>99</v>
-      </c>
-      <c r="D209" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="D209" s="2">
+        <v>46071</v>
       </c>
       <c r="E209" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F209">
         <v>1.67</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>23</v>
       </c>
       <c r="B210" t="s">
-        <v>99</v>
-      </c>
-      <c r="D210" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="D210" s="2">
+        <v>46071</v>
       </c>
       <c r="E210" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F210">
         <v>2.33</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>24</v>
       </c>
       <c r="B211" t="s">
-        <v>99</v>
-      </c>
-      <c r="D211" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="D211" s="2">
+        <v>46071</v>
       </c>
       <c r="E211" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F211">
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>34</v>
       </c>
       <c r="B212" t="s">
-        <v>99</v>
-      </c>
-      <c r="D212" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="D212" s="2">
+        <v>46071</v>
       </c>
       <c r="E212" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>40</v>
       </c>
       <c r="B213" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C213" t="s">
-        <v>101</v>
-      </c>
-      <c r="D213" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D213" s="2">
+        <v>46071</v>
       </c>
       <c r="E213" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F213">
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C214" t="s">
-        <v>101</v>
-      </c>
-      <c r="D214" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D214" s="2">
+        <v>46071</v>
       </c>
       <c r="E214" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F214">
         <v>10.33</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>29</v>
       </c>
       <c r="B215" t="s">
-        <v>99</v>
-      </c>
-      <c r="D215" t="s">
-        <v>104</v>
+        <v>96</v>
+      </c>
+      <c r="D215" s="2">
+        <v>46071</v>
       </c>
       <c r="E215" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F215">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>28</v>
       </c>
       <c r="B216" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C216" t="s">
-        <v>101</v>
-      </c>
-      <c r="D216" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D216" s="2">
+        <v>46071</v>
       </c>
       <c r="E216" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F216">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F216"/>
+  <autoFilter ref="A1:F216" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xp_SkillQuest_2026-02-18.xlsx
+++ b/xp_SkillQuest_2026-02-18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadmiom/Desktop/Résultats SkillQuest/SkillQuest20260218/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C344C-2EB7-E145-8E4B-1EDB61576372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7025DAF-B671-9A4B-A6A8-46AD8BE00A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28900" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="106">
   <si>
     <t>Mail</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Systèmes d'équations linéaires</t>
+  </si>
+  <si>
+    <t>2026-02-18</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D216"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D215" sqref="D2:D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -746,8 +749,8 @@
       <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="2">
-        <v>46071</v>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>101</v>
@@ -763,8 +766,8 @@
       <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="2">
-        <v>46071</v>
+      <c r="D3" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E3" t="s">
         <v>101</v>
@@ -783,8 +786,8 @@
       <c r="C4" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="2">
-        <v>46071</v>
+      <c r="D4" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>101</v>
@@ -803,8 +806,8 @@
       <c r="C5" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="2">
-        <v>46071</v>
+      <c r="D5" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E5" t="s">
         <v>101</v>
@@ -823,8 +826,8 @@
       <c r="C6" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="2">
-        <v>46071</v>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E6" t="s">
         <v>101</v>
@@ -840,8 +843,8 @@
       <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="2">
-        <v>46071</v>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>101</v>
@@ -860,8 +863,8 @@
       <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="2">
-        <v>46071</v>
+      <c r="D8" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E8" t="s">
         <v>101</v>
@@ -877,8 +880,8 @@
       <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="2">
-        <v>46071</v>
+      <c r="D9" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E9" t="s">
         <v>101</v>
@@ -894,8 +897,8 @@
       <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="2">
-        <v>46071</v>
+      <c r="D10" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E10" t="s">
         <v>101</v>
@@ -911,8 +914,8 @@
       <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="2">
-        <v>46071</v>
+      <c r="D11" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E11" t="s">
         <v>101</v>
@@ -928,8 +931,8 @@
       <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="2">
-        <v>46071</v>
+      <c r="D12" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E12" t="s">
         <v>101</v>
@@ -948,8 +951,8 @@
       <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="2">
-        <v>46071</v>
+      <c r="D13" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E13" t="s">
         <v>101</v>
@@ -965,8 +968,8 @@
       <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="2">
-        <v>46071</v>
+      <c r="D14" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>101</v>
@@ -985,8 +988,8 @@
       <c r="C15" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="2">
-        <v>46071</v>
+      <c r="D15" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E15" t="s">
         <v>101</v>
@@ -1005,8 +1008,8 @@
       <c r="C16" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="2">
-        <v>46071</v>
+      <c r="D16" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E16" t="s">
         <v>101</v>
@@ -1022,8 +1025,8 @@
       <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="2">
-        <v>46071</v>
+      <c r="D17" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E17" t="s">
         <v>101</v>
@@ -1039,8 +1042,8 @@
       <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="2">
-        <v>46071</v>
+      <c r="D18" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E18" t="s">
         <v>101</v>
@@ -1059,8 +1062,8 @@
       <c r="C19" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="2">
-        <v>46071</v>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E19" t="s">
         <v>101</v>
@@ -1076,8 +1079,8 @@
       <c r="B20" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="2">
-        <v>46071</v>
+      <c r="D20" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E20" t="s">
         <v>101</v>
@@ -1093,8 +1096,8 @@
       <c r="B21" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="2">
-        <v>46071</v>
+      <c r="D21" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E21" t="s">
         <v>101</v>
@@ -1110,8 +1113,8 @@
       <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="2">
-        <v>46071</v>
+      <c r="D22" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E22" t="s">
         <v>101</v>
@@ -1130,8 +1133,8 @@
       <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="2">
-        <v>46071</v>
+      <c r="D23" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E23" t="s">
         <v>101</v>
@@ -1147,8 +1150,8 @@
       <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="2">
-        <v>46071</v>
+      <c r="D24" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E24" t="s">
         <v>101</v>
@@ -1164,8 +1167,8 @@
       <c r="B25" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="2">
-        <v>46071</v>
+      <c r="D25" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E25" t="s">
         <v>101</v>
@@ -1184,8 +1187,8 @@
       <c r="C26" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="2">
-        <v>46071</v>
+      <c r="D26" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E26" t="s">
         <v>101</v>
@@ -1201,8 +1204,8 @@
       <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="2">
-        <v>46071</v>
+      <c r="D27" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>101</v>
@@ -1218,8 +1221,8 @@
       <c r="B28" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="2">
-        <v>46071</v>
+      <c r="D28" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E28" t="s">
         <v>101</v>
@@ -1238,8 +1241,8 @@
       <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="2">
-        <v>46071</v>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E29" t="s">
         <v>101</v>
@@ -1255,8 +1258,8 @@
       <c r="B30" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="2">
-        <v>46071</v>
+      <c r="D30" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>101</v>
@@ -1275,8 +1278,8 @@
       <c r="C31" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="2">
-        <v>46071</v>
+      <c r="D31" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E31" t="s">
         <v>101</v>
@@ -1292,8 +1295,8 @@
       <c r="B32" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="2">
-        <v>46071</v>
+      <c r="D32" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E32" t="s">
         <v>101</v>
@@ -1312,8 +1315,8 @@
       <c r="C33" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="2">
-        <v>46071</v>
+      <c r="D33" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E33" t="s">
         <v>101</v>
@@ -1329,8 +1332,8 @@
       <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="2">
-        <v>46071</v>
+      <c r="D34" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>101</v>
@@ -1349,8 +1352,8 @@
       <c r="C35" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="2">
-        <v>46071</v>
+      <c r="D35" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>101</v>
@@ -1366,8 +1369,8 @@
       <c r="B36" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="2">
-        <v>46071</v>
+      <c r="D36" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>101</v>
@@ -1386,8 +1389,8 @@
       <c r="C37" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="2">
-        <v>46071</v>
+      <c r="D37" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>101</v>
@@ -1403,8 +1406,8 @@
       <c r="B38" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="2">
-        <v>46071</v>
+      <c r="D38" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>101</v>
@@ -1420,8 +1423,8 @@
       <c r="B39" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="2">
-        <v>46071</v>
+      <c r="D39" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E39" t="s">
         <v>101</v>
@@ -1437,8 +1440,8 @@
       <c r="B40" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="2">
-        <v>46071</v>
+      <c r="D40" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E40" t="s">
         <v>101</v>
@@ -1454,8 +1457,8 @@
       <c r="B41" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="2">
-        <v>46071</v>
+      <c r="D41" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>101</v>
@@ -1474,8 +1477,8 @@
       <c r="C42" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="2">
-        <v>46071</v>
+      <c r="D42" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>101</v>
@@ -1491,8 +1494,8 @@
       <c r="B43" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="2">
-        <v>46071</v>
+      <c r="D43" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E43" t="s">
         <v>101</v>
@@ -1508,8 +1511,8 @@
       <c r="B44" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="2">
-        <v>46071</v>
+      <c r="D44" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E44" t="s">
         <v>101</v>
@@ -1525,8 +1528,8 @@
       <c r="B45" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="2">
-        <v>46071</v>
+      <c r="D45" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E45" t="s">
         <v>101</v>
@@ -1542,8 +1545,8 @@
       <c r="B46" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="2">
-        <v>46071</v>
+      <c r="D46" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>101</v>
@@ -1559,8 +1562,8 @@
       <c r="B47" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="2">
-        <v>46071</v>
+      <c r="D47" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E47" t="s">
         <v>101</v>
@@ -1579,8 +1582,8 @@
       <c r="C48" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="2">
-        <v>46071</v>
+      <c r="D48" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>101</v>
@@ -1596,8 +1599,8 @@
       <c r="B49" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="2">
-        <v>46071</v>
+      <c r="D49" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E49" t="s">
         <v>101</v>
@@ -1613,8 +1616,8 @@
       <c r="B50" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="2">
-        <v>46071</v>
+      <c r="D50" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E50" t="s">
         <v>101</v>
@@ -1630,8 +1633,8 @@
       <c r="B51" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="2">
-        <v>46071</v>
+      <c r="D51" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E51" t="s">
         <v>101</v>
@@ -1647,8 +1650,8 @@
       <c r="B52" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="2">
-        <v>46071</v>
+      <c r="D52" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>101</v>
@@ -1667,8 +1670,8 @@
       <c r="C53" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="2">
-        <v>46071</v>
+      <c r="D53" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>101</v>
@@ -1687,8 +1690,8 @@
       <c r="C54" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="2">
-        <v>46071</v>
+      <c r="D54" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>101</v>
@@ -1704,8 +1707,8 @@
       <c r="B55" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="2">
-        <v>46071</v>
+      <c r="D55" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>101</v>
@@ -1721,8 +1724,8 @@
       <c r="B56" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="2">
-        <v>46071</v>
+      <c r="D56" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E56" t="s">
         <v>101</v>
@@ -1738,8 +1741,8 @@
       <c r="B57" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="2">
-        <v>46071</v>
+      <c r="D57" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E57" t="s">
         <v>101</v>
@@ -1755,8 +1758,8 @@
       <c r="B58" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="2">
-        <v>46071</v>
+      <c r="D58" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>101</v>
@@ -1772,8 +1775,8 @@
       <c r="B59" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="2">
-        <v>46071</v>
+      <c r="D59" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E59" t="s">
         <v>101</v>
@@ -1789,8 +1792,8 @@
       <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="2">
-        <v>46071</v>
+      <c r="D60" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E60" t="s">
         <v>101</v>
@@ -1806,8 +1809,8 @@
       <c r="B61" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="2">
-        <v>46071</v>
+      <c r="D61" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E61" t="s">
         <v>101</v>
@@ -1826,8 +1829,8 @@
       <c r="C62" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="2">
-        <v>46071</v>
+      <c r="D62" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>101</v>
@@ -1843,8 +1846,8 @@
       <c r="B63" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="2">
-        <v>46071</v>
+      <c r="D63" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>101</v>
@@ -1860,8 +1863,8 @@
       <c r="B64" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="2">
-        <v>46071</v>
+      <c r="D64" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E64" t="s">
         <v>101</v>
@@ -1877,8 +1880,8 @@
       <c r="B65" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="2">
-        <v>46071</v>
+      <c r="D65" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E65" t="s">
         <v>101</v>
@@ -1894,8 +1897,8 @@
       <c r="B66" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="2">
-        <v>46071</v>
+      <c r="D66" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E66" t="s">
         <v>101</v>
@@ -1911,8 +1914,8 @@
       <c r="B67" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="2">
-        <v>46071</v>
+      <c r="D67" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E67" t="s">
         <v>101</v>
@@ -1928,8 +1931,8 @@
       <c r="B68" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="2">
-        <v>46071</v>
+      <c r="D68" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E68" t="s">
         <v>101</v>
@@ -1945,8 +1948,8 @@
       <c r="B69" t="s">
         <v>70</v>
       </c>
-      <c r="D69" s="2">
-        <v>46071</v>
+      <c r="D69" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E69" t="s">
         <v>101</v>
@@ -1962,8 +1965,8 @@
       <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="2">
-        <v>46071</v>
+      <c r="D70" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E70" t="s">
         <v>101</v>
@@ -1982,8 +1985,8 @@
       <c r="C71" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="2">
-        <v>46071</v>
+      <c r="D71" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E71" t="s">
         <v>101</v>
@@ -2002,8 +2005,8 @@
       <c r="C72" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="2">
-        <v>46071</v>
+      <c r="D72" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E72" t="s">
         <v>101</v>
@@ -2019,8 +2022,8 @@
       <c r="B73" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="2">
-        <v>46071</v>
+      <c r="D73" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E73" t="s">
         <v>101</v>
@@ -2036,8 +2039,8 @@
       <c r="B74" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="2">
-        <v>46071</v>
+      <c r="D74" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E74" t="s">
         <v>101</v>
@@ -2053,8 +2056,8 @@
       <c r="B75" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="2">
-        <v>46071</v>
+      <c r="D75" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E75" t="s">
         <v>101</v>
@@ -2070,8 +2073,8 @@
       <c r="B76" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="2">
-        <v>46071</v>
+      <c r="D76" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E76" t="s">
         <v>101</v>
@@ -2087,8 +2090,8 @@
       <c r="B77" t="s">
         <v>71</v>
       </c>
-      <c r="D77" s="2">
-        <v>46071</v>
+      <c r="D77" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E77" t="s">
         <v>101</v>
@@ -2104,8 +2107,8 @@
       <c r="B78" t="s">
         <v>71</v>
       </c>
-      <c r="D78" s="2">
-        <v>46071</v>
+      <c r="D78" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>101</v>
@@ -2124,8 +2127,8 @@
       <c r="C79" t="s">
         <v>98</v>
       </c>
-      <c r="D79" s="2">
-        <v>46071</v>
+      <c r="D79" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E79" t="s">
         <v>101</v>
@@ -2141,8 +2144,8 @@
       <c r="B80" t="s">
         <v>72</v>
       </c>
-      <c r="D80" s="2">
-        <v>46071</v>
+      <c r="D80" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>101</v>
@@ -2158,8 +2161,8 @@
       <c r="B81" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="2">
-        <v>46071</v>
+      <c r="D81" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E81" t="s">
         <v>101</v>
@@ -2175,8 +2178,8 @@
       <c r="B82" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="2">
-        <v>46071</v>
+      <c r="D82" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>101</v>
@@ -2195,8 +2198,8 @@
       <c r="C83" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="2">
-        <v>46071</v>
+      <c r="D83" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E83" t="s">
         <v>101</v>
@@ -2212,8 +2215,8 @@
       <c r="B84" t="s">
         <v>73</v>
       </c>
-      <c r="D84" s="2">
-        <v>46071</v>
+      <c r="D84" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E84" t="s">
         <v>101</v>
@@ -2229,8 +2232,8 @@
       <c r="B85" t="s">
         <v>73</v>
       </c>
-      <c r="D85" s="2">
-        <v>46071</v>
+      <c r="D85" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>101</v>
@@ -2249,8 +2252,8 @@
       <c r="C86" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="2">
-        <v>46071</v>
+      <c r="D86" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E86" t="s">
         <v>101</v>
@@ -2266,8 +2269,8 @@
       <c r="B87" t="s">
         <v>73</v>
       </c>
-      <c r="D87" s="2">
-        <v>46071</v>
+      <c r="D87" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E87" t="s">
         <v>101</v>
@@ -2283,8 +2286,8 @@
       <c r="B88" t="s">
         <v>73</v>
       </c>
-      <c r="D88" s="2">
-        <v>46071</v>
+      <c r="D88" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>101</v>
@@ -2300,8 +2303,8 @@
       <c r="B89" t="s">
         <v>73</v>
       </c>
-      <c r="D89" s="2">
-        <v>46071</v>
+      <c r="D89" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E89" t="s">
         <v>101</v>
@@ -2317,8 +2320,8 @@
       <c r="B90" t="s">
         <v>73</v>
       </c>
-      <c r="D90" s="2">
-        <v>46071</v>
+      <c r="D90" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>101</v>
@@ -2337,8 +2340,8 @@
       <c r="C91" t="s">
         <v>98</v>
       </c>
-      <c r="D91" s="2">
-        <v>46071</v>
+      <c r="D91" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E91" t="s">
         <v>101</v>
@@ -2354,8 +2357,8 @@
       <c r="B92" t="s">
         <v>74</v>
       </c>
-      <c r="D92" s="2">
-        <v>46071</v>
+      <c r="D92" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>101</v>
@@ -2374,8 +2377,8 @@
       <c r="C93" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="2">
-        <v>46071</v>
+      <c r="D93" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>101</v>
@@ -2391,8 +2394,8 @@
       <c r="B94" t="s">
         <v>74</v>
       </c>
-      <c r="D94" s="2">
-        <v>46071</v>
+      <c r="D94" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>101</v>
@@ -2408,8 +2411,8 @@
       <c r="B95" t="s">
         <v>103</v>
       </c>
-      <c r="D95" s="2">
-        <v>46071</v>
+      <c r="D95" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E95" t="s">
         <v>101</v>
@@ -2425,8 +2428,8 @@
       <c r="B96" t="s">
         <v>103</v>
       </c>
-      <c r="D96" s="2">
-        <v>46071</v>
+      <c r="D96" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E96" t="s">
         <v>101</v>
@@ -2445,8 +2448,8 @@
       <c r="C97" t="s">
         <v>98</v>
       </c>
-      <c r="D97" s="2">
-        <v>46071</v>
+      <c r="D97" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E97" t="s">
         <v>101</v>
@@ -2462,8 +2465,8 @@
       <c r="B98" t="s">
         <v>103</v>
       </c>
-      <c r="D98" s="2">
-        <v>46071</v>
+      <c r="D98" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E98" t="s">
         <v>101</v>
@@ -2482,8 +2485,8 @@
       <c r="C99" t="s">
         <v>98</v>
       </c>
-      <c r="D99" s="2">
-        <v>46071</v>
+      <c r="D99" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E99" t="s">
         <v>101</v>
@@ -2502,8 +2505,8 @@
       <c r="C100" t="s">
         <v>99</v>
       </c>
-      <c r="D100" s="2">
-        <v>46071</v>
+      <c r="D100" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E100" t="s">
         <v>101</v>
@@ -2522,8 +2525,8 @@
       <c r="C101" t="s">
         <v>100</v>
       </c>
-      <c r="D101" s="2">
-        <v>46071</v>
+      <c r="D101" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E101" t="s">
         <v>101</v>
@@ -2542,8 +2545,8 @@
       <c r="C102" t="s">
         <v>98</v>
       </c>
-      <c r="D102" s="2">
-        <v>46071</v>
+      <c r="D102" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E102" t="s">
         <v>101</v>
@@ -2562,8 +2565,8 @@
       <c r="C103" t="s">
         <v>98</v>
       </c>
-      <c r="D103" s="2">
-        <v>46071</v>
+      <c r="D103" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E103" t="s">
         <v>101</v>
@@ -2579,8 +2582,8 @@
       <c r="B104" t="s">
         <v>77</v>
       </c>
-      <c r="D104" s="2">
-        <v>46071</v>
+      <c r="D104" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E104" t="s">
         <v>101</v>
@@ -2596,8 +2599,8 @@
       <c r="B105" t="s">
         <v>77</v>
       </c>
-      <c r="D105" s="2">
-        <v>46071</v>
+      <c r="D105" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E105" t="s">
         <v>101</v>
@@ -2613,8 +2616,8 @@
       <c r="B106" t="s">
         <v>77</v>
       </c>
-      <c r="D106" s="2">
-        <v>46071</v>
+      <c r="D106" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E106" t="s">
         <v>101</v>
@@ -2630,8 +2633,8 @@
       <c r="B107" t="s">
         <v>77</v>
       </c>
-      <c r="D107" s="2">
-        <v>46071</v>
+      <c r="D107" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E107" t="s">
         <v>101</v>
@@ -2647,8 +2650,8 @@
       <c r="B108" t="s">
         <v>77</v>
       </c>
-      <c r="D108" s="2">
-        <v>46071</v>
+      <c r="D108" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E108" t="s">
         <v>101</v>
@@ -2664,8 +2667,8 @@
       <c r="B109" t="s">
         <v>77</v>
       </c>
-      <c r="D109" s="2">
-        <v>46071</v>
+      <c r="D109" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E109" t="s">
         <v>101</v>
@@ -2681,8 +2684,8 @@
       <c r="B110" t="s">
         <v>77</v>
       </c>
-      <c r="D110" s="2">
-        <v>46071</v>
+      <c r="D110" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E110" t="s">
         <v>101</v>
@@ -2698,8 +2701,8 @@
       <c r="B111" t="s">
         <v>77</v>
       </c>
-      <c r="D111" s="2">
-        <v>46071</v>
+      <c r="D111" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E111" t="s">
         <v>101</v>
@@ -2715,8 +2718,8 @@
       <c r="B112" t="s">
         <v>77</v>
       </c>
-      <c r="D112" s="2">
-        <v>46071</v>
+      <c r="D112" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E112" t="s">
         <v>101</v>
@@ -2732,8 +2735,8 @@
       <c r="B113" t="s">
         <v>77</v>
       </c>
-      <c r="D113" s="2">
-        <v>46071</v>
+      <c r="D113" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E113" t="s">
         <v>101</v>
@@ -2749,8 +2752,8 @@
       <c r="B114" t="s">
         <v>78</v>
       </c>
-      <c r="D114" s="2">
-        <v>46071</v>
+      <c r="D114" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E114" t="s">
         <v>101</v>
@@ -2766,8 +2769,8 @@
       <c r="B115" t="s">
         <v>78</v>
       </c>
-      <c r="D115" s="2">
-        <v>46071</v>
+      <c r="D115" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E115" t="s">
         <v>101</v>
@@ -2786,8 +2789,8 @@
       <c r="C116" t="s">
         <v>98</v>
       </c>
-      <c r="D116" s="2">
-        <v>46071</v>
+      <c r="D116" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E116" t="s">
         <v>101</v>
@@ -2803,8 +2806,8 @@
       <c r="B117" t="s">
         <v>79</v>
       </c>
-      <c r="D117" s="2">
-        <v>46071</v>
+      <c r="D117" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E117" t="s">
         <v>101</v>
@@ -2820,8 +2823,8 @@
       <c r="B118" t="s">
         <v>79</v>
       </c>
-      <c r="D118" s="2">
-        <v>46071</v>
+      <c r="D118" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E118" t="s">
         <v>101</v>
@@ -2837,8 +2840,8 @@
       <c r="B119" t="s">
         <v>79</v>
       </c>
-      <c r="D119" s="2">
-        <v>46071</v>
+      <c r="D119" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E119" t="s">
         <v>101</v>
@@ -2854,8 +2857,8 @@
       <c r="B120" t="s">
         <v>79</v>
       </c>
-      <c r="D120" s="2">
-        <v>46071</v>
+      <c r="D120" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E120" t="s">
         <v>101</v>
@@ -2871,8 +2874,8 @@
       <c r="B121" t="s">
         <v>79</v>
       </c>
-      <c r="D121" s="2">
-        <v>46071</v>
+      <c r="D121" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E121" t="s">
         <v>101</v>
@@ -2891,8 +2894,8 @@
       <c r="C122" t="s">
         <v>98</v>
       </c>
-      <c r="D122" s="2">
-        <v>46071</v>
+      <c r="D122" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E122" t="s">
         <v>101</v>
@@ -2911,8 +2914,8 @@
       <c r="C123" t="s">
         <v>98</v>
       </c>
-      <c r="D123" s="2">
-        <v>46071</v>
+      <c r="D123" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E123" t="s">
         <v>101</v>
@@ -2928,8 +2931,8 @@
       <c r="B124" t="s">
         <v>81</v>
       </c>
-      <c r="D124" s="2">
-        <v>46071</v>
+      <c r="D124" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E124" t="s">
         <v>101</v>
@@ -2948,8 +2951,8 @@
       <c r="C125" t="s">
         <v>98</v>
       </c>
-      <c r="D125" s="2">
-        <v>46071</v>
+      <c r="D125" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E125" t="s">
         <v>101</v>
@@ -2965,8 +2968,8 @@
       <c r="B126" t="s">
         <v>81</v>
       </c>
-      <c r="D126" s="2">
-        <v>46071</v>
+      <c r="D126" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E126" t="s">
         <v>101</v>
@@ -2982,8 +2985,8 @@
       <c r="B127" t="s">
         <v>81</v>
       </c>
-      <c r="D127" s="2">
-        <v>46071</v>
+      <c r="D127" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E127" t="s">
         <v>101</v>
@@ -2999,8 +3002,8 @@
       <c r="B128" t="s">
         <v>81</v>
       </c>
-      <c r="D128" s="2">
-        <v>46071</v>
+      <c r="D128" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E128" t="s">
         <v>101</v>
@@ -3016,8 +3019,8 @@
       <c r="B129" t="s">
         <v>81</v>
       </c>
-      <c r="D129" s="2">
-        <v>46071</v>
+      <c r="D129" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E129" t="s">
         <v>101</v>
@@ -3033,8 +3036,8 @@
       <c r="B130" t="s">
         <v>81</v>
       </c>
-      <c r="D130" s="2">
-        <v>46071</v>
+      <c r="D130" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E130" t="s">
         <v>101</v>
@@ -3050,8 +3053,8 @@
       <c r="B131" t="s">
         <v>81</v>
       </c>
-      <c r="D131" s="2">
-        <v>46071</v>
+      <c r="D131" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E131" t="s">
         <v>101</v>
@@ -3070,8 +3073,8 @@
       <c r="C132" t="s">
         <v>98</v>
       </c>
-      <c r="D132" s="2">
-        <v>46071</v>
+      <c r="D132" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E132" t="s">
         <v>101</v>
@@ -3090,8 +3093,8 @@
       <c r="C133" t="s">
         <v>98</v>
       </c>
-      <c r="D133" s="2">
-        <v>46071</v>
+      <c r="D133" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E133" t="s">
         <v>101</v>
@@ -3110,8 +3113,8 @@
       <c r="C134" t="s">
         <v>98</v>
       </c>
-      <c r="D134" s="2">
-        <v>46071</v>
+      <c r="D134" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E134" t="s">
         <v>101</v>
@@ -3127,8 +3130,8 @@
       <c r="B135" t="s">
         <v>83</v>
       </c>
-      <c r="D135" s="2">
-        <v>46071</v>
+      <c r="D135" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E135" t="s">
         <v>101</v>
@@ -3144,8 +3147,8 @@
       <c r="B136" t="s">
         <v>83</v>
       </c>
-      <c r="D136" s="2">
-        <v>46071</v>
+      <c r="D136" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E136" t="s">
         <v>101</v>
@@ -3161,8 +3164,8 @@
       <c r="B137" t="s">
         <v>83</v>
       </c>
-      <c r="D137" s="2">
-        <v>46071</v>
+      <c r="D137" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E137" t="s">
         <v>101</v>
@@ -3178,8 +3181,8 @@
       <c r="B138" t="s">
         <v>83</v>
       </c>
-      <c r="D138" s="2">
-        <v>46071</v>
+      <c r="D138" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E138" t="s">
         <v>101</v>
@@ -3195,8 +3198,8 @@
       <c r="B139" t="s">
         <v>83</v>
       </c>
-      <c r="D139" s="2">
-        <v>46071</v>
+      <c r="D139" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E139" t="s">
         <v>101</v>
@@ -3212,8 +3215,8 @@
       <c r="B140" t="s">
         <v>83</v>
       </c>
-      <c r="D140" s="2">
-        <v>46071</v>
+      <c r="D140" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E140" t="s">
         <v>101</v>
@@ -3229,8 +3232,8 @@
       <c r="B141" t="s">
         <v>84</v>
       </c>
-      <c r="D141" s="2">
-        <v>46071</v>
+      <c r="D141" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E141" t="s">
         <v>101</v>
@@ -3246,8 +3249,8 @@
       <c r="B142" t="s">
         <v>84</v>
       </c>
-      <c r="D142" s="2">
-        <v>46071</v>
+      <c r="D142" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E142" t="s">
         <v>101</v>
@@ -3263,8 +3266,8 @@
       <c r="B143" t="s">
         <v>84</v>
       </c>
-      <c r="D143" s="2">
-        <v>46071</v>
+      <c r="D143" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E143" t="s">
         <v>101</v>
@@ -3280,8 +3283,8 @@
       <c r="B144" t="s">
         <v>84</v>
       </c>
-      <c r="D144" s="2">
-        <v>46071</v>
+      <c r="D144" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E144" t="s">
         <v>101</v>
@@ -3297,8 +3300,8 @@
       <c r="B145" t="s">
         <v>84</v>
       </c>
-      <c r="D145" s="2">
-        <v>46071</v>
+      <c r="D145" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E145" t="s">
         <v>101</v>
@@ -3314,8 +3317,8 @@
       <c r="B146" t="s">
         <v>84</v>
       </c>
-      <c r="D146" s="2">
-        <v>46071</v>
+      <c r="D146" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E146" t="s">
         <v>101</v>
@@ -3331,8 +3334,8 @@
       <c r="B147" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="2">
-        <v>46071</v>
+      <c r="D147" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E147" t="s">
         <v>101</v>
@@ -3348,8 +3351,8 @@
       <c r="B148" t="s">
         <v>84</v>
       </c>
-      <c r="D148" s="2">
-        <v>46071</v>
+      <c r="D148" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E148" t="s">
         <v>101</v>
@@ -3365,8 +3368,8 @@
       <c r="B149" t="s">
         <v>84</v>
       </c>
-      <c r="D149" s="2">
-        <v>46071</v>
+      <c r="D149" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E149" t="s">
         <v>101</v>
@@ -3385,8 +3388,8 @@
       <c r="C150" t="s">
         <v>98</v>
       </c>
-      <c r="D150" s="2">
-        <v>46071</v>
+      <c r="D150" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E150" t="s">
         <v>101</v>
@@ -3405,8 +3408,8 @@
       <c r="C151" t="s">
         <v>98</v>
       </c>
-      <c r="D151" s="2">
-        <v>46071</v>
+      <c r="D151" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E151" t="s">
         <v>101</v>
@@ -3425,8 +3428,8 @@
       <c r="C152" t="s">
         <v>100</v>
       </c>
-      <c r="D152" s="2">
-        <v>46071</v>
+      <c r="D152" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E152" t="s">
         <v>101</v>
@@ -3442,8 +3445,8 @@
       <c r="B153" t="s">
         <v>85</v>
       </c>
-      <c r="D153" s="2">
-        <v>46071</v>
+      <c r="D153" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E153" t="s">
         <v>101</v>
@@ -3462,8 +3465,8 @@
       <c r="C154" t="s">
         <v>100</v>
       </c>
-      <c r="D154" s="2">
-        <v>46071</v>
+      <c r="D154" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E154" t="s">
         <v>101</v>
@@ -3479,8 +3482,8 @@
       <c r="B155" t="s">
         <v>86</v>
       </c>
-      <c r="D155" s="2">
-        <v>46071</v>
+      <c r="D155" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E155" t="s">
         <v>101</v>
@@ -3496,8 +3499,8 @@
       <c r="B156" t="s">
         <v>86</v>
       </c>
-      <c r="D156" s="2">
-        <v>46071</v>
+      <c r="D156" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E156" t="s">
         <v>101</v>
@@ -3516,8 +3519,8 @@
       <c r="C157" t="s">
         <v>98</v>
       </c>
-      <c r="D157" s="2">
-        <v>46071</v>
+      <c r="D157" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E157" t="s">
         <v>101</v>
@@ -3533,8 +3536,8 @@
       <c r="B158" t="s">
         <v>86</v>
       </c>
-      <c r="D158" s="2">
-        <v>46071</v>
+      <c r="D158" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E158" t="s">
         <v>101</v>
@@ -3550,8 +3553,8 @@
       <c r="B159" t="s">
         <v>86</v>
       </c>
-      <c r="D159" s="2">
-        <v>46071</v>
+      <c r="D159" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E159" t="s">
         <v>101</v>
@@ -3567,8 +3570,8 @@
       <c r="B160" t="s">
         <v>86</v>
       </c>
-      <c r="D160" s="2">
-        <v>46071</v>
+      <c r="D160" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E160" t="s">
         <v>101</v>
@@ -3584,8 +3587,8 @@
       <c r="B161" t="s">
         <v>86</v>
       </c>
-      <c r="D161" s="2">
-        <v>46071</v>
+      <c r="D161" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E161" t="s">
         <v>101</v>
@@ -3601,8 +3604,8 @@
       <c r="B162" t="s">
         <v>86</v>
       </c>
-      <c r="D162" s="2">
-        <v>46071</v>
+      <c r="D162" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E162" t="s">
         <v>101</v>
@@ -3618,8 +3621,8 @@
       <c r="B163" t="s">
         <v>86</v>
       </c>
-      <c r="D163" s="2">
-        <v>46071</v>
+      <c r="D163" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E163" t="s">
         <v>101</v>
@@ -3638,8 +3641,8 @@
       <c r="C164" t="s">
         <v>98</v>
       </c>
-      <c r="D164" s="2">
-        <v>46071</v>
+      <c r="D164" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E164" t="s">
         <v>101</v>
@@ -3655,8 +3658,8 @@
       <c r="B165" t="s">
         <v>86</v>
       </c>
-      <c r="D165" s="2">
-        <v>46071</v>
+      <c r="D165" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E165" t="s">
         <v>101</v>
@@ -3672,8 +3675,8 @@
       <c r="B166" t="s">
         <v>86</v>
       </c>
-      <c r="D166" s="2">
-        <v>46071</v>
+      <c r="D166" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E166" t="s">
         <v>101</v>
@@ -3689,8 +3692,8 @@
       <c r="B167" t="s">
         <v>86</v>
       </c>
-      <c r="D167" s="2">
-        <v>46071</v>
+      <c r="D167" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E167" t="s">
         <v>101</v>
@@ -3706,8 +3709,8 @@
       <c r="B168" t="s">
         <v>86</v>
       </c>
-      <c r="D168" s="2">
-        <v>46071</v>
+      <c r="D168" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E168" t="s">
         <v>101</v>
@@ -3726,8 +3729,8 @@
       <c r="C169" t="s">
         <v>98</v>
       </c>
-      <c r="D169" s="2">
-        <v>46071</v>
+      <c r="D169" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E169" t="s">
         <v>101</v>
@@ -3746,8 +3749,8 @@
       <c r="C170" t="s">
         <v>98</v>
       </c>
-      <c r="D170" s="2">
-        <v>46071</v>
+      <c r="D170" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E170" t="s">
         <v>101</v>
@@ -3763,8 +3766,8 @@
       <c r="B171" t="s">
         <v>86</v>
       </c>
-      <c r="D171" s="2">
-        <v>46071</v>
+      <c r="D171" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E171" t="s">
         <v>101</v>
@@ -3780,8 +3783,8 @@
       <c r="B172" t="s">
         <v>86</v>
       </c>
-      <c r="D172" s="2">
-        <v>46071</v>
+      <c r="D172" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E172" t="s">
         <v>101</v>
@@ -3797,8 +3800,8 @@
       <c r="B173" t="s">
         <v>87</v>
       </c>
-      <c r="D173" s="2">
-        <v>46071</v>
+      <c r="D173" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E173" t="s">
         <v>101</v>
@@ -3814,8 +3817,8 @@
       <c r="B174" t="s">
         <v>88</v>
       </c>
-      <c r="D174" s="2">
-        <v>46071</v>
+      <c r="D174" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E174" t="s">
         <v>101</v>
@@ -3831,8 +3834,8 @@
       <c r="B175" t="s">
         <v>88</v>
       </c>
-      <c r="D175" s="2">
-        <v>46071</v>
+      <c r="D175" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E175" t="s">
         <v>101</v>
@@ -3848,8 +3851,8 @@
       <c r="B176" t="s">
         <v>104</v>
       </c>
-      <c r="D176" s="2">
-        <v>46071</v>
+      <c r="D176" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E176" t="s">
         <v>101</v>
@@ -3868,8 +3871,8 @@
       <c r="C177" t="s">
         <v>98</v>
       </c>
-      <c r="D177" s="2">
-        <v>46071</v>
+      <c r="D177" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E177" t="s">
         <v>101</v>
@@ -3885,8 +3888,8 @@
       <c r="B178" t="s">
         <v>104</v>
       </c>
-      <c r="D178" s="2">
-        <v>46071</v>
+      <c r="D178" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E178" t="s">
         <v>101</v>
@@ -3905,8 +3908,8 @@
       <c r="C179" t="s">
         <v>98</v>
       </c>
-      <c r="D179" s="2">
-        <v>46071</v>
+      <c r="D179" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E179" t="s">
         <v>101</v>
@@ -3922,8 +3925,8 @@
       <c r="B180" t="s">
         <v>89</v>
       </c>
-      <c r="D180" s="2">
-        <v>46071</v>
+      <c r="D180" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E180" t="s">
         <v>101</v>
@@ -3942,8 +3945,8 @@
       <c r="C181" t="s">
         <v>98</v>
       </c>
-      <c r="D181" s="2">
-        <v>46071</v>
+      <c r="D181" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E181" t="s">
         <v>101</v>
@@ -3962,8 +3965,8 @@
       <c r="C182" t="s">
         <v>98</v>
       </c>
-      <c r="D182" s="2">
-        <v>46071</v>
+      <c r="D182" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E182" t="s">
         <v>101</v>
@@ -3982,8 +3985,8 @@
       <c r="C183" t="s">
         <v>98</v>
       </c>
-      <c r="D183" s="2">
-        <v>46071</v>
+      <c r="D183" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E183" t="s">
         <v>101</v>
@@ -3999,8 +4002,8 @@
       <c r="B184" t="s">
         <v>89</v>
       </c>
-      <c r="D184" s="2">
-        <v>46071</v>
+      <c r="D184" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E184" t="s">
         <v>101</v>
@@ -4016,8 +4019,8 @@
       <c r="B185" t="s">
         <v>89</v>
       </c>
-      <c r="D185" s="2">
-        <v>46071</v>
+      <c r="D185" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E185" t="s">
         <v>101</v>
@@ -4033,8 +4036,8 @@
       <c r="B186" t="s">
         <v>90</v>
       </c>
-      <c r="D186" s="2">
-        <v>46071</v>
+      <c r="D186" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E186" t="s">
         <v>101</v>
@@ -4053,8 +4056,8 @@
       <c r="C187" t="s">
         <v>98</v>
       </c>
-      <c r="D187" s="2">
-        <v>46071</v>
+      <c r="D187" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E187" t="s">
         <v>101</v>
@@ -4070,8 +4073,8 @@
       <c r="B188" t="s">
         <v>90</v>
       </c>
-      <c r="D188" s="2">
-        <v>46071</v>
+      <c r="D188" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E188" t="s">
         <v>101</v>
@@ -4087,8 +4090,8 @@
       <c r="B189" t="s">
         <v>90</v>
       </c>
-      <c r="D189" s="2">
-        <v>46071</v>
+      <c r="D189" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E189" t="s">
         <v>101</v>
@@ -4104,8 +4107,8 @@
       <c r="B190" t="s">
         <v>90</v>
       </c>
-      <c r="D190" s="2">
-        <v>46071</v>
+      <c r="D190" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E190" t="s">
         <v>101</v>
@@ -4121,8 +4124,8 @@
       <c r="B191" t="s">
         <v>91</v>
       </c>
-      <c r="D191" s="2">
-        <v>46071</v>
+      <c r="D191" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E191" t="s">
         <v>101</v>
@@ -4138,8 +4141,8 @@
       <c r="B192" t="s">
         <v>91</v>
       </c>
-      <c r="D192" s="2">
-        <v>46071</v>
+      <c r="D192" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E192" t="s">
         <v>101</v>
@@ -4158,8 +4161,8 @@
       <c r="C193" t="s">
         <v>98</v>
       </c>
-      <c r="D193" s="2">
-        <v>46071</v>
+      <c r="D193" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E193" t="s">
         <v>101</v>
@@ -4175,8 +4178,8 @@
       <c r="B194" t="s">
         <v>91</v>
       </c>
-      <c r="D194" s="2">
-        <v>46071</v>
+      <c r="D194" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E194" t="s">
         <v>101</v>
@@ -4192,8 +4195,8 @@
       <c r="B195" t="s">
         <v>91</v>
       </c>
-      <c r="D195" s="2">
-        <v>46071</v>
+      <c r="D195" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E195" t="s">
         <v>101</v>
@@ -4209,8 +4212,8 @@
       <c r="B196" t="s">
         <v>92</v>
       </c>
-      <c r="D196" s="2">
-        <v>46071</v>
+      <c r="D196" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E196" t="s">
         <v>101</v>
@@ -4229,8 +4232,8 @@
       <c r="C197" t="s">
         <v>98</v>
       </c>
-      <c r="D197" s="2">
-        <v>46071</v>
+      <c r="D197" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E197" t="s">
         <v>101</v>
@@ -4249,8 +4252,8 @@
       <c r="C198" t="s">
         <v>98</v>
       </c>
-      <c r="D198" s="2">
-        <v>46071</v>
+      <c r="D198" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E198" t="s">
         <v>101</v>
@@ -4266,8 +4269,8 @@
       <c r="B199" t="s">
         <v>92</v>
       </c>
-      <c r="D199" s="2">
-        <v>46071</v>
+      <c r="D199" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E199" t="s">
         <v>101</v>
@@ -4283,8 +4286,8 @@
       <c r="B200" t="s">
         <v>92</v>
       </c>
-      <c r="D200" s="2">
-        <v>46071</v>
+      <c r="D200" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E200" t="s">
         <v>101</v>
@@ -4303,8 +4306,8 @@
       <c r="C201" t="s">
         <v>98</v>
       </c>
-      <c r="D201" s="2">
-        <v>46071</v>
+      <c r="D201" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E201" t="s">
         <v>101</v>
@@ -4320,8 +4323,8 @@
       <c r="B202" t="s">
         <v>93</v>
       </c>
-      <c r="D202" s="2">
-        <v>46071</v>
+      <c r="D202" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E202" t="s">
         <v>101</v>
@@ -4337,8 +4340,8 @@
       <c r="B203" t="s">
         <v>93</v>
       </c>
-      <c r="D203" s="2">
-        <v>46071</v>
+      <c r="D203" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E203" t="s">
         <v>101</v>
@@ -4354,8 +4357,8 @@
       <c r="B204" t="s">
         <v>94</v>
       </c>
-      <c r="D204" s="2">
-        <v>46071</v>
+      <c r="D204" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E204" t="s">
         <v>101</v>
@@ -4371,8 +4374,8 @@
       <c r="B205" t="s">
         <v>94</v>
       </c>
-      <c r="D205" s="2">
-        <v>46071</v>
+      <c r="D205" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E205" t="s">
         <v>101</v>
@@ -4388,8 +4391,8 @@
       <c r="B206" t="s">
         <v>94</v>
       </c>
-      <c r="D206" s="2">
-        <v>46071</v>
+      <c r="D206" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E206" t="s">
         <v>101</v>
@@ -4405,8 +4408,8 @@
       <c r="B207" t="s">
         <v>94</v>
       </c>
-      <c r="D207" s="2">
-        <v>46071</v>
+      <c r="D207" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E207" t="s">
         <v>101</v>
@@ -4422,8 +4425,8 @@
       <c r="B208" t="s">
         <v>95</v>
       </c>
-      <c r="D208" s="2">
-        <v>46071</v>
+      <c r="D208" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E208" t="s">
         <v>101</v>
@@ -4439,8 +4442,8 @@
       <c r="B209" t="s">
         <v>96</v>
       </c>
-      <c r="D209" s="2">
-        <v>46071</v>
+      <c r="D209" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E209" t="s">
         <v>101</v>
@@ -4456,8 +4459,8 @@
       <c r="B210" t="s">
         <v>96</v>
       </c>
-      <c r="D210" s="2">
-        <v>46071</v>
+      <c r="D210" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E210" t="s">
         <v>101</v>
@@ -4473,8 +4476,8 @@
       <c r="B211" t="s">
         <v>96</v>
       </c>
-      <c r="D211" s="2">
-        <v>46071</v>
+      <c r="D211" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E211" t="s">
         <v>101</v>
@@ -4490,8 +4493,8 @@
       <c r="B212" t="s">
         <v>96</v>
       </c>
-      <c r="D212" s="2">
-        <v>46071</v>
+      <c r="D212" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E212" t="s">
         <v>101</v>
@@ -4510,8 +4513,8 @@
       <c r="C213" t="s">
         <v>98</v>
       </c>
-      <c r="D213" s="2">
-        <v>46071</v>
+      <c r="D213" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E213" t="s">
         <v>101</v>
@@ -4530,8 +4533,8 @@
       <c r="C214" t="s">
         <v>98</v>
       </c>
-      <c r="D214" s="2">
-        <v>46071</v>
+      <c r="D214" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E214" t="s">
         <v>101</v>
@@ -4547,8 +4550,8 @@
       <c r="B215" t="s">
         <v>96</v>
       </c>
-      <c r="D215" s="2">
-        <v>46071</v>
+      <c r="D215" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E215" t="s">
         <v>101</v>
@@ -4567,8 +4570,8 @@
       <c r="C216" t="s">
         <v>98</v>
       </c>
-      <c r="D216" s="2">
-        <v>46071</v>
+      <c r="D216" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E216" t="s">
         <v>101</v>
